--- a/comparativaAutos.xlsx
+++ b/comparativaAutos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbritos\Desktop\recomendador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F6C93-171F-48DB-B453-8B9E28373FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D6748-B072-47B4-A86A-92F2A2FF4C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="190">
   <si>
     <t>Bestune Xiaoma</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>PUNTAJE</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>images/xiaoma.png</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -683,6 +689,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -820,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,6 +961,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,8 +1183,8 @@
   <dimension ref="A1:BN45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1234,7 @@
     <col min="55" max="56" width="22.42578125" customWidth="1"/>
     <col min="57" max="57" width="16.140625" customWidth="1"/>
     <col min="58" max="58" width="26" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="59" max="59" width="16.42578125" customWidth="1"/>
     <col min="60" max="60" width="18.140625" customWidth="1"/>
     <col min="61" max="61" width="26" customWidth="1"/>
     <col min="62" max="65" width="23.5703125" customWidth="1"/>
@@ -1417,13 +1439,17 @@
       <c r="BN1" s="7"/>
     </row>
     <row r="2" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>189</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1453,35 +1479,35 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="39"/>
+      <c r="AK2" s="38"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="5"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
       <c r="AU2" s="2"/>
-      <c r="AV2" s="39"/>
+      <c r="AV2" s="38"/>
       <c r="AW2" s="5"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
-      <c r="BE2" s="39"/>
+      <c r="BE2" s="38"/>
       <c r="BF2" s="5"/>
       <c r="BG2" s="2"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="39"/>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
       <c r="BN2" s="11"/>
     </row>
     <row r="3" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5280,147 +5306,147 @@
       </c>
       <c r="BN21" s="19"/>
     </row>
-    <row r="22" spans="1:66" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:66" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="S22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="W22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="X22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM22" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="BN22" s="46" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="X22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN22" s="45" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5455,8 +5481,8 @@
       <c r="J23" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>108</v>
+      <c r="K23" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>107</v>
@@ -5655,8 +5681,8 @@
       <c r="J24" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>108</v>
+      <c r="K24" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>107</v>
@@ -6055,8 +6081,8 @@
       <c r="J26" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>108</v>
+      <c r="K26" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>107</v>
@@ -6255,8 +6281,8 @@
       <c r="J27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>108</v>
+      <c r="K27" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>107</v>
@@ -6855,8 +6881,8 @@
       <c r="J30" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>108</v>
+      <c r="K30" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>107</v>
@@ -7055,8 +7081,8 @@
       <c r="J31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>108</v>
+      <c r="K31" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>107</v>
